--- a/Documentation/Power-related/Battery information.xlsx
+++ b/Documentation/Power-related/Battery information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\Documentation\Power-related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1D9D81-FB27-497E-BAB7-EF9D5330C0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C3BE0-580C-4F97-B166-1E916D9B9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8E4B752A-BD50-4D06-9001-C393B2186BBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8E4B752A-BD50-4D06-9001-C393B2186BBF}"/>
   </bookViews>
   <sheets>
     <sheet name="General information" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Brand:</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>6.0 V -&gt; 12.6 V, + 2580 mAh</t>
+  </si>
+  <si>
+    <t>9.9 V -&gt; 12.6 V, + 2586 mAh</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87573DA-B50C-46CC-9F7A-94E51E181878}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
@@ -1529,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88737A9-8182-4836-87EF-07264231593B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1577,11 +1580,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="3">
+        <v>45350</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>

--- a/Documentation/Power-related/Battery information.xlsx
+++ b/Documentation/Power-related/Battery information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\Documentation\Power-related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477C3BE0-580C-4F97-B166-1E916D9B9FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA899FF-4944-4C6B-B1F8-87582BE2F534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8E4B752A-BD50-4D06-9001-C393B2186BBF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Brand:</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>9.9 V -&gt; 12.6 V, + 2586 mAh</t>
+  </si>
+  <si>
+    <t>8.0 V -&gt; 12.6 V, + 2614 mAh</t>
   </si>
 </sst>
 </file>
@@ -1597,11 +1600,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="3">
+        <v>45369</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>

--- a/Documentation/Power-related/Battery information.xlsx
+++ b/Documentation/Power-related/Battery information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\Documentation\Power-related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA899FF-4944-4C6B-B1F8-87582BE2F534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4917BA-1333-4788-AEE7-6871444A3E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8E4B752A-BD50-4D06-9001-C393B2186BBF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Brand:</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>8.0 V -&gt; 12.6 V, + 2614 mAh</t>
+  </si>
+  <si>
+    <t>9.0 V -&gt; 12.6 V, + 2614 mAh</t>
   </si>
 </sst>
 </file>
@@ -1617,11 +1620,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="3">
+        <v>45386</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>

--- a/Documentation/Power-related/Battery information.xlsx
+++ b/Documentation/Power-related/Battery information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\S-car-lett-A1\Documentation\Power-related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4917BA-1333-4788-AEE7-6871444A3E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24316E55-D5F6-40F2-B67D-89C5C38043EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8E4B752A-BD50-4D06-9001-C393B2186BBF}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Brand:</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>9.0 V -&gt; 12.6 V, + 2614 mAh</t>
+  </si>
+  <si>
+    <t>9.4 V -&gt; 12.6 V, + 2606 mAh</t>
   </si>
 </sst>
 </file>
@@ -1637,11 +1640,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="3">
+        <v>45400</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
